--- a/src/test/resources/com/sirion/xls/SL Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/SL Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="133">
   <si>
     <t>Y</t>
   </si>
@@ -384,6 +384,42 @@
   </si>
   <si>
     <t>March-1-2020</t>
+  </si>
+  <si>
+    <t>slStartDateMonth</t>
+  </si>
+  <si>
+    <t>slStartDateDate</t>
+  </si>
+  <si>
+    <t>slStartDateYear</t>
+  </si>
+  <si>
+    <t>slEndDateMonth</t>
+  </si>
+  <si>
+    <t>slEndDateDate</t>
+  </si>
+  <si>
+    <t>slEndDateYear</t>
+  </si>
+  <si>
+    <t>slPatternDateMonth</t>
+  </si>
+  <si>
+    <t>slPatternDateDate</t>
+  </si>
+  <si>
+    <t>slPatternDateYear</t>
+  </si>
+  <si>
+    <t>slEffectiveDateMonth</t>
+  </si>
+  <si>
+    <t>slEffectiveDateDate</t>
+  </si>
+  <si>
+    <t>slEffectiveDateYear</t>
   </si>
 </sst>
 </file>
@@ -456,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,6 +506,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,11 +913,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA3"/>
+  <dimension ref="A1:CM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -930,42 +967,54 @@
     <col min="44" max="44" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="57" max="57" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1105,106 +1154,142 @@
         <v>36</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1251,18 +1336,18 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
@@ -1282,12 +1367,24 @@
       <c r="BW2" s="3"/>
       <c r="BX2" s="3"/>
       <c r="BY2" s="3"/>
-      <c r="BZ2" s="3" t="s">
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CA2" s="3"/>
+      <c r="CM2" s="3"/>
     </row>
-    <row r="3" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -1406,77 +1503,113 @@
       <c r="AT3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>11</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>11</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW3" s="5" t="s">
+      <c r="CI3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CA3" s="1"/>
+      <c r="CM3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/com/sirion/xls/SL Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/SL Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11280" windowHeight="5850" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11280" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>Y</t>
   </si>
@@ -242,9 +242,6 @@
     <t>MSA</t>
   </si>
   <si>
-    <t>ABC News</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>slGlobalCreation</t>
   </si>
   <si>
-    <t>Master Service Agreement - ABC</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -347,79 +341,79 @@
     <t>Maximum</t>
   </si>
   <si>
+    <t>Speed to Answer After Voice Response Unit (India AO)</t>
+  </si>
+  <si>
+    <t>SLCreation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>SLWorkflow</t>
+  </si>
+  <si>
+    <t>SLNonWorkflow</t>
+  </si>
+  <si>
+    <t>Server Monitoring - HSBC</t>
+  </si>
+  <si>
+    <t>SLA11.0</t>
+  </si>
+  <si>
+    <t>Master Service Level Agreement - HSBC</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - HSBC</t>
+  </si>
+  <si>
+    <t>March-1-2020</t>
+  </si>
+  <si>
+    <t>slStartDateMonth</t>
+  </si>
+  <si>
+    <t>slStartDateDate</t>
+  </si>
+  <si>
+    <t>slStartDateYear</t>
+  </si>
+  <si>
+    <t>slEndDateMonth</t>
+  </si>
+  <si>
+    <t>slEndDateDate</t>
+  </si>
+  <si>
+    <t>slEndDateYear</t>
+  </si>
+  <si>
+    <t>slPatternDateMonth</t>
+  </si>
+  <si>
+    <t>slPatternDateDate</t>
+  </si>
+  <si>
+    <t>slPatternDateYear</t>
+  </si>
+  <si>
+    <t>slEffectiveDateMonth</t>
+  </si>
+  <si>
+    <t>slEffectiveDateDate</t>
+  </si>
+  <si>
+    <t>slEffectiveDateYear</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Speed to Answer After Voice Response Unit (India AO)</t>
-  </si>
-  <si>
-    <t>SLCreation</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>SLWorkflow</t>
-  </si>
-  <si>
-    <t>SLNonWorkflow</t>
-  </si>
-  <si>
-    <t>Server Monitoring - HSBC</t>
-  </si>
-  <si>
-    <t>SLA11.0</t>
-  </si>
-  <si>
-    <t>Master Service Level Agreement - HSBC</t>
-  </si>
-  <si>
-    <t>HSBC</t>
-  </si>
-  <si>
-    <t>Master Service Agreement - HSBC</t>
-  </si>
-  <si>
-    <t>March-1-2020</t>
-  </si>
-  <si>
-    <t>slStartDateMonth</t>
-  </si>
-  <si>
-    <t>slStartDateDate</t>
-  </si>
-  <si>
-    <t>slStartDateYear</t>
-  </si>
-  <si>
-    <t>slEndDateMonth</t>
-  </si>
-  <si>
-    <t>slEndDateDate</t>
-  </si>
-  <si>
-    <t>slEndDateYear</t>
-  </si>
-  <si>
-    <t>slPatternDateMonth</t>
-  </si>
-  <si>
-    <t>slPatternDateDate</t>
-  </si>
-  <si>
-    <t>slPatternDateYear</t>
-  </si>
-  <si>
-    <t>slEffectiveDateMonth</t>
-  </si>
-  <si>
-    <t>slEffectiveDateDate</t>
-  </si>
-  <si>
-    <t>slEffectiveDateYear</t>
   </si>
 </sst>
 </file>
@@ -813,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -852,40 +846,40 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -895,10 +889,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -915,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1076,13 +1070,13 @@
         <v>26</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
@@ -1100,49 +1094,49 @@
         <v>32</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>34</v>
@@ -1154,40 +1148,40 @@
         <v>36</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="BG1" s="3" t="s">
         <v>37</v>
@@ -1232,25 +1226,25 @@
         <v>50</v>
       </c>
       <c r="BU1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="BY1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BZ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="CB1" s="3" t="s">
         <v>52</v>
@@ -1277,7 +1271,7 @@
         <v>59</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CK1" s="3" t="s">
         <v>3</v>
@@ -1380,19 +1374,19 @@
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="CM2" s="3"/>
     </row>
     <row r="3" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>60</v>
@@ -1401,7 +1395,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>63</v>
@@ -1418,7 +1412,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1426,7 +1420,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>69</v>
@@ -1444,16 +1438,16 @@
         <v>70</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="1">
         <v>11</v>
@@ -1471,10 +1465,10 @@
         <v>71</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AL3" s="1">
         <v>22</v>
@@ -1489,10 +1483,10 @@
         <v>71</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>70</v>
@@ -1540,16 +1534,16 @@
         <v>2017</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
@@ -1560,31 +1554,31 @@
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU3" s="1">
         <v>1</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BW3" s="1">
         <v>1</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BZ3" s="1">
         <v>11</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="CB3" s="1"/>
       <c r="CC3" s="1"/>
@@ -1592,22 +1586,22 @@
       <c r="CE3" s="1"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="CH3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="CI3" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="CK3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="CM3" s="1"/>
     </row>
@@ -1666,13 +1660,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>28</v>
@@ -1757,7 +1751,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="Y2" s="3"/>
     </row>
@@ -1799,16 +1793,16 @@
         <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1820,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -1832,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ4"/>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1979,13 +1973,13 @@
         <v>26</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
@@ -2003,49 +1997,49 @@
         <v>32</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>34</v>
@@ -2099,25 +2093,25 @@
         <v>50</v>
       </c>
       <c r="BI1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="BM1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BN1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="BP1" s="3" t="s">
         <v>52</v>
@@ -2230,20 +2224,18 @@
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
       <c r="BX2" s="3"/>
-      <c r="BY2" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
     </row>
     <row r="3" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>60</v>
@@ -2269,7 +2261,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2281,7 +2273,7 @@
         <v>67</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>69</v>
@@ -2299,13 +2291,13 @@
         <v>70</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>6</v>
@@ -2326,7 +2318,7 @@
         <v>71</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>6</v>
@@ -2344,7 +2336,7 @@
         <v>71</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>6</v>
@@ -2359,16 +2351,16 @@
         <v>70</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
@@ -2379,10 +2371,10 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BI3" s="1">
         <v>1</v>
@@ -2394,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BN3" s="1">
         <v>11</v>
@@ -2411,26 +2403,19 @@
       <c r="BS3" s="1"/>
       <c r="BT3" s="1"/>
       <c r="BU3" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BY3" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
-    </row>
-    <row r="4" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BY4" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
